--- a/va_facility_data_2025-02-20/Lynn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lynn%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Lynn VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Lynn%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd1746fad70ad45a28909222275a8e490"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R553aa647b890488094f65249e02c6858"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rca31eed233e742729c88abc78b7eb0ef"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R09920d2621544ccdae05d91d7e86f2ae"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R15f7994d8bb0459cbcb7b2ee799a477d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0316b614481f499fa9a5e910b4cef494"/>
   </x:sheets>
 </x:workbook>
 </file>
